--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_3_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1143526.936338229</v>
+        <v>-978495.0457885729</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14355217.64012661</v>
+        <v>12232730.83239524</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.366480916</v>
+        <v>393801.3664809167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10780076.79076111</v>
+        <v>10846694.01959751</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -674,10 +674,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>171.4286410859927</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.11631013281968</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>28.11631013281968</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>24.76484596498756</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>28.11631013281968</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>120.8854363677981</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>24.76484596498756</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>246.82401553972</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>246.82401553972</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>28.66548829251629</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>246.82401553972</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>74.03658576642084</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
@@ -1041,7 +1041,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>75.17084540344209</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>246.82401553972</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>246.82401553972</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
-        <v>54.88695712468976</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>18.53687908691677</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>28.66548829251649</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1309,7 +1309,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>191.049613721297</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1430,13 +1430,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>54.98238459040624</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>217.4309767874205</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>91.74981090988319</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.2455538821339</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1594,7 +1594,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.54790254396564</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>131.0502213619652</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>15.65115387343087</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>103.1850960300445</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>107.8104032629636</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740879</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068515</v>
       </c>
       <c r="E17" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>131.0502213619663</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>98.15366458399853</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>229.5053733751212</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458145</v>
       </c>
       <c r="U20" t="n">
-        <v>178.5625581707102</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647467</v>
+        <v>96.44420510686807</v>
       </c>
       <c r="H22" t="n">
-        <v>92.96932646399678</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>37.36157859846136</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>96.44420510686437</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>115.1571444457449</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.885794462093</v>
+        <v>96.44420510686466</v>
       </c>
       <c r="T28" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399345</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>49.87597792716613</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3205,7 +3205,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448716</v>
+        <v>63.09628120448714</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>386.0425690809814</v>
       </c>
       <c r="F35" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>318.2399193523734</v>
       </c>
       <c r="W35" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>365.6092959720189</v>
+        <v>371.0892096660612</v>
       </c>
     </row>
     <row r="36">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T41" t="n">
         <v>183.0417138731735</v>
@@ -3916,7 +3916,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448783</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705893</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>739.7227283470036</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>312.8219983603037</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>293.569781585708</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>271.6332457739696</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772885</v>
+        <v>250.5494680037739</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625575</v>
+        <v>250.2508096336266</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625575</v>
+        <v>77.09056611242184</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625575</v>
+        <v>42.19369485589306</v>
       </c>
       <c r="J2" t="n">
-        <v>2.249304810625575</v>
+        <v>404.7971536727886</v>
       </c>
       <c r="K2" t="n">
-        <v>2.249304810625575</v>
+        <v>543.2438212696231</v>
       </c>
       <c r="L2" t="n">
-        <v>28.95979943680427</v>
+        <v>1065.3907951113</v>
       </c>
       <c r="M2" t="n">
-        <v>56.79494646829576</v>
+        <v>1065.3907951113</v>
       </c>
       <c r="N2" t="n">
-        <v>84.63009349978725</v>
+        <v>1065.3907951113</v>
       </c>
       <c r="O2" t="n">
-        <v>84.63009349978725</v>
+        <v>1587.537768952976</v>
       </c>
       <c r="P2" t="n">
-        <v>84.63009349978725</v>
+        <v>2109.684742794653</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.63009349978725</v>
+        <v>2109.684742794653</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2109.684742794653</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>2005.317448667793</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>1784.391877712426</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>1526.036968308839</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1168.547553435088</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1168.547553435088</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>1160.867958643239</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>755.5306885981296</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.66461400032987</v>
+        <v>609.3171858873483</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26430073485544</v>
+        <v>491.811282404853</v>
       </c>
       <c r="D3" t="n">
-        <v>27.26430073485544</v>
+        <v>387.9713239201381</v>
       </c>
       <c r="E3" t="n">
-        <v>2.249304810625575</v>
+        <v>283.2693901930753</v>
       </c>
       <c r="F3" t="n">
-        <v>2.249304810625575</v>
+        <v>189.6235598759795</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>95.56978809358347</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>42.19369485589306</v>
       </c>
       <c r="I3" t="n">
-        <v>9.695947772537416</v>
+        <v>42.19369485589306</v>
       </c>
       <c r="J3" t="n">
-        <v>37.5310948040289</v>
+        <v>313.8911841354841</v>
       </c>
       <c r="K3" t="n">
-        <v>65.36624183552038</v>
+        <v>313.8911841354841</v>
       </c>
       <c r="L3" t="n">
-        <v>84.63009349978725</v>
+        <v>313.8911841354841</v>
       </c>
       <c r="M3" t="n">
-        <v>84.63009349978725</v>
+        <v>836.0381579771606</v>
       </c>
       <c r="N3" t="n">
-        <v>84.63009349978725</v>
+        <v>1358.185131818837</v>
       </c>
       <c r="O3" t="n">
-        <v>84.63009349978725</v>
+        <v>1768.8620153517</v>
       </c>
       <c r="P3" t="n">
-        <v>84.63009349978725</v>
+        <v>1768.8620153517</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.63009349978725</v>
+        <v>1768.8620153517</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1850.881325436403</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1769.557077997657</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>1627.677142295336</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>1442.908946214972</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>1237.935807354238</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>1041.414430187456</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>877.9370839541186</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.0649272658043</v>
+        <v>738.244195307411</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.66461400032987</v>
+        <v>812.4234145077069</v>
       </c>
       <c r="C4" t="n">
-        <v>27.26430073485544</v>
+        <v>812.4234145077069</v>
       </c>
       <c r="D4" t="n">
-        <v>27.26430073485544</v>
+        <v>690.3169131260926</v>
       </c>
       <c r="E4" t="n">
-        <v>27.26430073485544</v>
+        <v>524.1087072789461</v>
       </c>
       <c r="F4" t="n">
-        <v>2.249304810625575</v>
+        <v>352.2469330535065</v>
       </c>
       <c r="G4" t="n">
-        <v>2.249304810625575</v>
+        <v>185.9899633477387</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>42.19369485589306</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>42.19369485589306</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>42.19369485589306</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>268.7212960617302</v>
       </c>
       <c r="L4" t="n">
-        <v>30.08445184211706</v>
+        <v>623.4106173561511</v>
       </c>
       <c r="M4" t="n">
-        <v>56.79494646829576</v>
+        <v>1014.596412326402</v>
       </c>
       <c r="N4" t="n">
-        <v>84.63009349978725</v>
+        <v>1392.087923202438</v>
       </c>
       <c r="O4" t="n">
-        <v>84.63009349978725</v>
+        <v>1747.516051882201</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>2038.115263804102</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2109.684742794653</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.646129481826</v>
       </c>
       <c r="S4" t="n">
-        <v>112.4652405312787</v>
+        <v>1892.511082000961</v>
       </c>
       <c r="T4" t="n">
-        <v>112.4652405312787</v>
+        <v>1649.171734226861</v>
       </c>
       <c r="U4" t="n">
-        <v>112.4652405312787</v>
+        <v>1368.987285727165</v>
       </c>
       <c r="V4" t="n">
-        <v>112.4652405312787</v>
+        <v>1087.275818335194</v>
       </c>
       <c r="W4" t="n">
-        <v>112.4652405312787</v>
+        <v>812.4234145077069</v>
       </c>
       <c r="X4" t="n">
-        <v>112.4652405312787</v>
+        <v>812.4234145077069</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.0649272658043</v>
+        <v>812.4234145077069</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>638.4100236302493</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C5" t="n">
-        <v>615.5496976839535</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D5" t="n">
-        <v>596.2974809093578</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>574.3609450976194</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>553.2771673274236</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>303.959979913565</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>54.64279249970639</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>19.7459212431776</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>19.7459212431776</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>19.7459212431776</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>264.1016966275004</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>498.5845113902344</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>742.9402867745572</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>987.29606215888</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>987.29606215888</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q5" t="n">
-        <v>987.29606215888</v>
+        <v>2152.580309506745</v>
       </c>
       <c r="R5" t="n">
-        <v>987.29606215888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>987.29606215888</v>
+        <v>2195.956213783067</v>
       </c>
       <c r="T5" t="n">
-        <v>987.29606215888</v>
+        <v>1975.0306428277</v>
       </c>
       <c r="U5" t="n">
-        <v>987.29606215888</v>
+        <v>1716.675733424113</v>
       </c>
       <c r="V5" t="n">
-        <v>737.9788747450214</v>
+        <v>1359.186318550362</v>
       </c>
       <c r="W5" t="n">
-        <v>663.1944446779296</v>
+        <v>962.794968850709</v>
       </c>
       <c r="X5" t="n">
-        <v>655.5148498860809</v>
+        <v>551.0749700184562</v>
       </c>
       <c r="Y5" t="n">
-        <v>654.2179838813753</v>
+        <v>549.7781040137505</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.7459212431776</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>19.7459212431776</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>19.7459212431776</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>19.7459212431776</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>19.7459212431776</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>19.7459212431776</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>19.7459212431776</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>27.19256420508944</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>271.5483395894123</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>515.904114973735</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>515.904114973735</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>515.904114973735</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N6" t="n">
-        <v>660.9209766898541</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>660.9209766898541</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P6" t="n">
-        <v>905.2767520741769</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
-        <v>905.2767520741769</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>987.29606215888</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>987.29606215888</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>845.4161264565582</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>660.6479303761949</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>455.6747915154612</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>259.1534143486784</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>95.67606811534134</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.7459212431776</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.7459212431776</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7459212431776</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>19.7459212431776</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>19.7459212431776</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>19.7459212431776</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>19.7459212431776</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>19.7459212431776</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>19.7459212431776</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>19.7459212431776</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>246.2735224490148</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>490.6292978333375</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>734.9850732176603</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>979.3408486019831</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>987.29606215888</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>987.29606215888</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>987.29606215888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>987.29606215888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>817.1610146780148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>573.8216669039148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>324.5044794900562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>75.18729207619756</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>19.7459212431776</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>19.7459212431776</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.7459212431776</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>580.0049027205474</v>
+        <v>158.88477840153</v>
       </c>
       <c r="C8" t="n">
-        <v>557.1445767742516</v>
+        <v>136.0244524552342</v>
       </c>
       <c r="D8" t="n">
-        <v>537.8923599996559</v>
+        <v>116.7722356806385</v>
       </c>
       <c r="E8" t="n">
-        <v>515.9558241879175</v>
+        <v>94.83569986890012</v>
       </c>
       <c r="F8" t="n">
-        <v>494.8720464177218</v>
+        <v>73.75192209870443</v>
       </c>
       <c r="G8" t="n">
-        <v>90.53298400717046</v>
+        <v>73.45326372855712</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>73.45326372855712</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>357.6855680512415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>357.6855680512415</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N8" t="n">
-        <v>814.4714747539724</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.257381456703</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1366.319142682382</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1008.829727808632</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>1008.829727808632</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X8" t="n">
-        <v>597.1097289763791</v>
+        <v>580.0300086977657</v>
       </c>
       <c r="Y8" t="n">
-        <v>595.8128629716734</v>
+        <v>174.692738652656</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0561247023296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>316.0561247023296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>316.0561247023296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>393.2225928484409</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>850.0084995511718</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.9652306584402</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>346.9652306584402</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>346.9652306584402</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>346.9652306584402</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1652.620215242047</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1372.435766742351</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1090.72429935038</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>815.8718955228931</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>573.3079989686981</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>346.9652306584402</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2525.342853444553</v>
+        <v>2536.911497639543</v>
       </c>
       <c r="C11" t="n">
-        <v>2098.442123457853</v>
+        <v>2110.010767652843</v>
       </c>
       <c r="D11" t="n">
-        <v>1675.149502642853</v>
+        <v>1686.718146837843</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.172562790711</v>
+        <v>1260.741206985701</v>
       </c>
       <c r="F11" t="n">
-        <v>824.0483809801111</v>
+        <v>835.6170251751007</v>
       </c>
       <c r="G11" t="n">
-        <v>419.7093185695597</v>
+        <v>431.2779627645493</v>
       </c>
       <c r="H11" t="n">
-        <v>121.8409400435946</v>
+        <v>133.4095842385841</v>
       </c>
       <c r="I11" t="n">
-        <v>86.94406878706579</v>
+        <v>98.51271298205531</v>
       </c>
       <c r="J11" t="n">
-        <v>449.5475276039613</v>
+        <v>461.1161717989508</v>
       </c>
       <c r="K11" t="n">
-        <v>1165.05583557946</v>
+        <v>1176.62447977445</v>
       </c>
       <c r="L11" t="n">
-        <v>2094.680883198737</v>
+        <v>2106.249527393727</v>
       </c>
       <c r="M11" t="n">
-        <v>2220.137695658464</v>
+        <v>2106.249527393727</v>
       </c>
       <c r="N11" t="n">
-        <v>2220.137695658464</v>
+        <v>2798.56990540794</v>
       </c>
       <c r="O11" t="n">
-        <v>3065.282345809276</v>
+        <v>3643.714555558752</v>
       </c>
       <c r="P11" t="n">
-        <v>3773.561624967204</v>
+        <v>4351.99383471668</v>
       </c>
       <c r="Q11" t="n">
-        <v>4229.647104471387</v>
+        <v>4808.079314220863</v>
       </c>
       <c r="R11" t="n">
-        <v>4347.203439353289</v>
+        <v>4925.635649102765</v>
       </c>
       <c r="S11" t="n">
-        <v>4242.83614522643</v>
+        <v>4821.268354975906</v>
       </c>
       <c r="T11" t="n">
-        <v>4021.910574271063</v>
+        <v>4600.342784020539</v>
       </c>
       <c r="U11" t="n">
-        <v>3763.555664867476</v>
+        <v>4341.987874616951</v>
       </c>
       <c r="V11" t="n">
-        <v>3406.066249993725</v>
+        <v>3984.4984597432</v>
       </c>
       <c r="W11" t="n">
-        <v>3406.066249993725</v>
+        <v>3588.107110043547</v>
       </c>
       <c r="X11" t="n">
-        <v>3350.528487781193</v>
+        <v>3176.387111211295</v>
       </c>
       <c r="Y11" t="n">
-        <v>2945.191217736083</v>
+        <v>2956.759861931072</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>654.067559818521</v>
+        <v>665.6362040135106</v>
       </c>
       <c r="C12" t="n">
-        <v>536.5616563360257</v>
+        <v>548.1303005310153</v>
       </c>
       <c r="D12" t="n">
-        <v>432.7216978513108</v>
+        <v>444.2903420463003</v>
       </c>
       <c r="E12" t="n">
-        <v>328.019764124248</v>
+        <v>339.5884083192375</v>
       </c>
       <c r="F12" t="n">
-        <v>234.3739338071522</v>
+        <v>245.9425780021417</v>
       </c>
       <c r="G12" t="n">
-        <v>140.3201620247562</v>
+        <v>151.8888062197457</v>
       </c>
       <c r="H12" t="n">
-        <v>86.94406878706579</v>
+        <v>98.51271298205531</v>
       </c>
       <c r="I12" t="n">
-        <v>94.39071174897762</v>
+        <v>98.51271298205531</v>
       </c>
       <c r="J12" t="n">
-        <v>366.0882010285687</v>
+        <v>98.51271298205531</v>
       </c>
       <c r="K12" t="n">
-        <v>366.0882010285687</v>
+        <v>98.51271298205531</v>
       </c>
       <c r="L12" t="n">
-        <v>366.0882010285687</v>
+        <v>98.51271298205531</v>
       </c>
       <c r="M12" t="n">
-        <v>1422.074739004614</v>
+        <v>98.51271298205531</v>
       </c>
       <c r="N12" t="n">
-        <v>1422.074739004614</v>
+        <v>726.8571496612878</v>
       </c>
       <c r="O12" t="n">
-        <v>1422.074739004614</v>
+        <v>726.8571496612878</v>
       </c>
       <c r="P12" t="n">
-        <v>1431.486222504796</v>
+        <v>1443.054866699786</v>
       </c>
       <c r="Q12" t="n">
-        <v>1895.631699367575</v>
+        <v>1907.200343562565</v>
       </c>
       <c r="R12" t="n">
-        <v>1895.631699367575</v>
+        <v>1907.200343562565</v>
       </c>
       <c r="S12" t="n">
-        <v>1814.30745192883</v>
+        <v>1825.87609612382</v>
       </c>
       <c r="T12" t="n">
-        <v>1672.427516226508</v>
+        <v>1683.996160421498</v>
       </c>
       <c r="U12" t="n">
-        <v>1487.659320146145</v>
+        <v>1499.227964341135</v>
       </c>
       <c r="V12" t="n">
-        <v>1282.686181285411</v>
+        <v>1294.254825480401</v>
       </c>
       <c r="W12" t="n">
-        <v>1086.164804118628</v>
+        <v>1097.733448313618</v>
       </c>
       <c r="X12" t="n">
-        <v>922.6874578852913</v>
+        <v>934.2561020802809</v>
       </c>
       <c r="Y12" t="n">
-        <v>782.9945692385837</v>
+        <v>794.5632134335733</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>737.8914474986641</v>
+        <v>839.3125079289046</v>
       </c>
       <c r="C13" t="n">
-        <v>565.9188843775802</v>
+        <v>839.3125079289046</v>
       </c>
       <c r="D13" t="n">
-        <v>402.6021115043509</v>
+        <v>839.3125079289046</v>
       </c>
       <c r="E13" t="n">
-        <v>402.6021115043509</v>
+        <v>673.1043020817581</v>
       </c>
       <c r="F13" t="n">
-        <v>230.7403372789114</v>
+        <v>501.2425278563185</v>
       </c>
       <c r="G13" t="n">
-        <v>230.7403372789114</v>
+        <v>334.9855581505506</v>
       </c>
       <c r="H13" t="n">
-        <v>86.94406878706579</v>
+        <v>191.189289658705</v>
       </c>
       <c r="I13" t="n">
-        <v>86.94406878706579</v>
+        <v>98.51271298205532</v>
       </c>
       <c r="J13" t="n">
-        <v>144.4353970112238</v>
+        <v>156.0040412062133</v>
       </c>
       <c r="K13" t="n">
-        <v>370.962998217061</v>
+        <v>382.5316424120505</v>
       </c>
       <c r="L13" t="n">
-        <v>725.6523195114818</v>
+        <v>737.2209637064714</v>
       </c>
       <c r="M13" t="n">
-        <v>1116.838114481733</v>
+        <v>1128.406758676722</v>
       </c>
       <c r="N13" t="n">
-        <v>1494.329625357768</v>
+        <v>1505.898269552758</v>
       </c>
       <c r="O13" t="n">
-        <v>1849.757754037531</v>
+        <v>1861.326398232521</v>
       </c>
       <c r="P13" t="n">
-        <v>2140.356965959432</v>
+        <v>2151.925610154422</v>
       </c>
       <c r="Q13" t="n">
-        <v>2267.357096200194</v>
+        <v>2278.925740395184</v>
       </c>
       <c r="R13" t="n">
-        <v>2267.357096200194</v>
+        <v>2278.925740395184</v>
       </c>
       <c r="S13" t="n">
-        <v>2097.222048719329</v>
+        <v>2108.790692914319</v>
       </c>
       <c r="T13" t="n">
-        <v>1853.882700945229</v>
+        <v>2108.790692914319</v>
       </c>
       <c r="U13" t="n">
-        <v>1671.81648490267</v>
+        <v>1828.606244414623</v>
       </c>
       <c r="V13" t="n">
-        <v>1671.81648490267</v>
+        <v>1546.894777022652</v>
       </c>
       <c r="W13" t="n">
-        <v>1396.964081075183</v>
+        <v>1272.042373195165</v>
       </c>
       <c r="X13" t="n">
-        <v>1154.400184520988</v>
+        <v>1029.47847664097</v>
       </c>
       <c r="Y13" t="n">
-        <v>928.0574162107298</v>
+        <v>1029.47847664097</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2281.064754648851</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C14" t="n">
-        <v>1889.06089591868</v>
+        <v>2113.800768076618</v>
       </c>
       <c r="D14" t="n">
-        <v>1500.66514636021</v>
+        <v>1690.508147261618</v>
       </c>
       <c r="E14" t="n">
-        <v>1109.585077764596</v>
+        <v>1264.531207409476</v>
       </c>
       <c r="F14" t="n">
-        <v>719.357767210525</v>
+        <v>839.4070255988761</v>
       </c>
       <c r="G14" t="n">
-        <v>349.9155760565021</v>
+        <v>435.0679631883247</v>
       </c>
       <c r="H14" t="n">
-        <v>86.94406878706579</v>
+        <v>137.1995846623595</v>
       </c>
       <c r="I14" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J14" t="n">
-        <v>172.395095963073</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>887.9034039385721</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1817.528451557849</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1817.528451557849</v>
+        <v>2585.460682495987</v>
       </c>
       <c r="N14" t="n">
-        <v>2793.77951004455</v>
+        <v>3561.711740982688</v>
       </c>
       <c r="O14" t="n">
-        <v>3638.924160195362</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P14" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="Q14" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="R14" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S14" t="n">
-        <v>4277.733016482958</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T14" t="n">
-        <v>4091.70431678412</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U14" t="n">
-        <v>3868.246278637061</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V14" t="n">
-        <v>3545.653735019839</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W14" t="n">
-        <v>3413.279774048157</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X14" t="n">
-        <v>3036.456646472433</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y14" t="n">
-        <v>2666.016247683852</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>654.067559818521</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>536.5616563360257</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>432.7216978513108</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>328.019764124248</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>234.3739338071522</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G15" t="n">
-        <v>140.3201620247562</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I15" t="n">
-        <v>94.39071174897762</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J15" t="n">
-        <v>366.0882010285687</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K15" t="n">
-        <v>956.5731275969083</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L15" t="n">
-        <v>956.5731275969083</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M15" t="n">
-        <v>1431.486222504796</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N15" t="n">
-        <v>1431.486222504796</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O15" t="n">
-        <v>1431.486222504796</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P15" t="n">
-        <v>1431.486222504796</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q15" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1814.30745192883</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1672.427516226508</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1487.659320146145</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1282.686181285411</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1086.164804118628</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>922.6874578852913</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>782.9945692385837</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>898.7143637936798</v>
+        <v>935.3163081599938</v>
       </c>
       <c r="C16" t="n">
-        <v>761.6386719291246</v>
+        <v>763.3437450389098</v>
       </c>
       <c r="D16" t="n">
-        <v>633.2187703124241</v>
+        <v>600.0269721656805</v>
       </c>
       <c r="E16" t="n">
-        <v>501.9074357218065</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F16" t="n">
-        <v>364.9425327528957</v>
+        <v>412.3559516034421</v>
       </c>
       <c r="G16" t="n">
-        <v>260.7151630255779</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>151.815765790261</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I16" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J16" t="n">
-        <v>178.6378205297477</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>439.3678452541087</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>828.2595900670533</v>
+        <v>741.0109641302516</v>
       </c>
       <c r="M16" t="n">
-        <v>1253.647808555828</v>
+        <v>1132.196759100503</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.341742950387</v>
+        <v>1509.688269976538</v>
       </c>
       <c r="O16" t="n">
-        <v>2054.972295148674</v>
+        <v>1865.116398656301</v>
       </c>
       <c r="P16" t="n">
-        <v>2379.773930589099</v>
+        <v>2155.715610578202</v>
       </c>
       <c r="Q16" t="n">
-        <v>2540.976484348385</v>
+        <v>2282.715740818964</v>
       </c>
       <c r="R16" t="n">
-        <v>2528.834742292087</v>
+        <v>2282.715740818964</v>
       </c>
       <c r="S16" t="n">
-        <v>2393.596566067751</v>
+        <v>2112.580693338099</v>
       </c>
       <c r="T16" t="n">
-        <v>2185.15408955018</v>
+        <v>1869.241345563999</v>
       </c>
       <c r="U16" t="n">
-        <v>1939.866512307013</v>
+        <v>1869.241345563999</v>
       </c>
       <c r="V16" t="n">
-        <v>1693.05191617157</v>
+        <v>1869.241345563999</v>
       </c>
       <c r="W16" t="n">
-        <v>1453.096383600612</v>
+        <v>1594.388941736512</v>
       </c>
       <c r="X16" t="n">
-        <v>1245.429358302946</v>
+        <v>1351.825045182317</v>
       </c>
       <c r="Y16" t="n">
-        <v>1053.983461249217</v>
+        <v>1125.482276872059</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2281.064754648851</v>
+        <v>2540.701498063318</v>
       </c>
       <c r="C17" t="n">
-        <v>1889.06089591868</v>
+        <v>2113.800768076618</v>
       </c>
       <c r="D17" t="n">
-        <v>1500.665146360209</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1109.585077764596</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>719.3577672105248</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G17" t="n">
-        <v>349.9155760565021</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
-        <v>86.94406878706579</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I17" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J17" t="n">
-        <v>449.5475276039613</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1165.05583557946</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>2094.680883198737</v>
+        <v>1581.174581076929</v>
       </c>
       <c r="M17" t="n">
-        <v>2094.680883198737</v>
+        <v>2585.460682495987</v>
       </c>
       <c r="N17" t="n">
-        <v>2220.137695658464</v>
+        <v>3561.711740982688</v>
       </c>
       <c r="O17" t="n">
-        <v>3065.282345809276</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P17" t="n">
-        <v>3773.561624967204</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="Q17" t="n">
-        <v>4229.647104471387</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="R17" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S17" t="n">
-        <v>4277.733016482959</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T17" t="n">
-        <v>4091.704316784121</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U17" t="n">
-        <v>3868.246278637062</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V17" t="n">
-        <v>3545.65373501984</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W17" t="n">
-        <v>3413.279774048157</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X17" t="n">
-        <v>3036.456646472433</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y17" t="n">
-        <v>2666.016247683852</v>
+        <v>2960.549862354848</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>654.067559818521</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>536.5616563360257</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>432.7216978513108</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>328.019764124248</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>234.3739338071522</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3201620247562</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I18" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J18" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K18" t="n">
-        <v>86.94406878706579</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>923.742876869972</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>923.742876869972</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N18" t="n">
-        <v>1895.631699367575</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O18" t="n">
-        <v>1895.631699367575</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P18" t="n">
-        <v>1895.631699367575</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1814.30745192883</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1672.427516226508</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1487.659320146145</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1282.686181285411</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1086.164804118628</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>922.6874578852913</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>782.9945692385837</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>925.8470925156012</v>
+        <v>373.4203922683253</v>
       </c>
       <c r="C19" t="n">
-        <v>788.771400651046</v>
+        <v>201.4478291472412</v>
       </c>
       <c r="D19" t="n">
-        <v>660.3514990343454</v>
+        <v>201.4478291472412</v>
       </c>
       <c r="E19" t="n">
-        <v>529.0401644437277</v>
+        <v>201.4478291472412</v>
       </c>
       <c r="F19" t="n">
-        <v>392.0752614748169</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G19" t="n">
-        <v>260.7151630255779</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H19" t="n">
-        <v>151.815765790261</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I19" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J19" t="n">
-        <v>178.6378205297477</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>439.3678452541089</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>828.2595900670535</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1253.647808555828</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.341742950388</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2054.972295148675</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2379.7739305891</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2540.976484348385</v>
+        <v>2282.715740818963</v>
       </c>
       <c r="R19" t="n">
-        <v>2540.976484348385</v>
+        <v>2282.715740818963</v>
       </c>
       <c r="S19" t="n">
-        <v>2405.738308124049</v>
+        <v>2112.580693338098</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.295831606478</v>
+        <v>1869.241345563998</v>
       </c>
       <c r="U19" t="n">
-        <v>1952.008254363311</v>
+        <v>1589.056897064302</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.184644893491</v>
+        <v>1307.345429672331</v>
       </c>
       <c r="W19" t="n">
-        <v>1480.229112322533</v>
+        <v>1032.493025844844</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.562087024867</v>
+        <v>789.9291292906488</v>
       </c>
       <c r="Y19" t="n">
-        <v>1081.116189971138</v>
+        <v>563.586360980391</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2281.064754648851</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>1889.06089591868</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1500.665146360209</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1109.585077764596</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>719.3577672105248</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>349.9155760565021</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>86.94406878706579</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>449.5475276039613</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1165.05583557946</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2094.680883198737</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.694030540366</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>2337.694030540366</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3182.838680691179</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>3891.117959849106</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>4347.203439353289</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>4347.203439353289</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>4277.733016482959</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4277.733016482959</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>4097.366796108503</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3774.774252491281</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3413.279774048157</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3036.456646472433</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2666.016247683852</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>654.067559818521</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>536.5616563360257</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>432.7216978513108</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>328.019764124248</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>234.3739338071522</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>140.3201620247562</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>677.4289953554054</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>677.4289953554054</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>677.4289953554054</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>1179.433982329077</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
-        <v>1179.433982329077</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1895.631699367575</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>1895.631699367575</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1814.30745192883</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1672.427516226508</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1487.659320146145</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1282.686181285411</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1086.164804118628</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>922.6874578852913</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>782.9945692385837</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>910.8561058499779</v>
+        <v>543.5554397491885</v>
       </c>
       <c r="C22" t="n">
-        <v>773.7804139854227</v>
+        <v>371.5828766281045</v>
       </c>
       <c r="D22" t="n">
-        <v>645.3605123687221</v>
+        <v>371.5828766281045</v>
       </c>
       <c r="E22" t="n">
-        <v>514.0491777781044</v>
+        <v>371.5828766281045</v>
       </c>
       <c r="F22" t="n">
-        <v>377.0842748091936</v>
+        <v>199.721102402665</v>
       </c>
       <c r="G22" t="n">
-        <v>245.7241763599546</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>151.815765790261</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>86.94406878706579</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>178.6378205297477</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>439.3678452541087</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>828.2595900670533</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1253.647808555828</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.341742950387</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O22" t="n">
-        <v>2054.972295148674</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P22" t="n">
-        <v>2379.773930589099</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>2540.976484348385</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2540.976484348385</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S22" t="n">
-        <v>2405.738308124049</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.295831606478</v>
+        <v>2039.376393044861</v>
       </c>
       <c r="U22" t="n">
-        <v>1952.008254363311</v>
+        <v>1759.191944545165</v>
       </c>
       <c r="V22" t="n">
-        <v>1705.193658227868</v>
+        <v>1477.480477153194</v>
       </c>
       <c r="W22" t="n">
-        <v>1465.23812565691</v>
+        <v>1202.628073325707</v>
       </c>
       <c r="X22" t="n">
-        <v>1257.571100359244</v>
+        <v>960.0641767715123</v>
       </c>
       <c r="Y22" t="n">
-        <v>1066.125203305515</v>
+        <v>733.7214084612542</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.740683576841</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385135</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844908</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.61999771505441</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>454.2234565319499</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1383.848504151227</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>1477.683083571194</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N23" t="n">
-        <v>2453.934142057895</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O23" t="n">
-        <v>3299.078792208707</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.358071366635</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>4463.443550870818</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.999885752721</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036493</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.450181419271</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400423</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611842</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465097</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640145</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792995</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522367</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>99.06664067696624</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>99.06664067696624</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>689.5515672453058</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>719.9644343942869</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>719.9644343942869</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
-        <v>719.9644343942869</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>719.9644343942869</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>1436.162151432785</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.36338681328</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665724</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.3902927216686</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>766.3146008571134</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>637.8946992404128</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>506.5833646497952</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>369.6184616808844</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G25" t="n">
-        <v>238.2583632316453</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H25" t="n">
-        <v>129.3589659963285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820974</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2533.510671220076</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2398.27249499574</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2189.830018478168</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.542441235001</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1697.727845099559</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1457.772312528601</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.105287230935</v>
+        <v>862.6457877746756</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.659390177206</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>724.0336961385134</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>354.5915049844908</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>91.6199977150544</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>454.2234565319499</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1169.731764507449</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>2099.356812126726</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M26" t="n">
-        <v>2099.356812126726</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N26" t="n">
-        <v>3075.607870613427</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O26" t="n">
-        <v>3920.752520764239</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P26" t="n">
-        <v>4580.99988575272</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q26" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>99.06664067696623</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>370.7641299565573</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>961.2490565248969</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L27" t="n">
-        <v>961.2490565248969</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M27" t="n">
-        <v>961.2490565248969</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N27" t="n">
-        <v>961.2490565248969</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O27" t="n">
-        <v>961.2490565248969</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P27" t="n">
-        <v>1354.142841348082</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1818.288318210861</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>915.5320347779667</v>
+        <v>446.1370507523519</v>
       </c>
       <c r="C28" t="n">
-        <v>778.4563429134115</v>
+        <v>274.1644876312679</v>
       </c>
       <c r="D28" t="n">
-        <v>650.036441296711</v>
+        <v>274.164487631268</v>
       </c>
       <c r="E28" t="n">
-        <v>533.7160933717163</v>
+        <v>274.164487631268</v>
       </c>
       <c r="F28" t="n">
-        <v>396.7511904028055</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="G28" t="n">
-        <v>265.3910919535664</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="H28" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>183.3137494577362</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>444.0437741820972</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9355189950418</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>2059.648224076663</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2410.414237052038</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2201.971760534466</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.684183291299</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.869587155857</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1469.914054584899</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1262.247029287233</v>
+        <v>862.6457877746756</v>
       </c>
       <c r="Y28" t="n">
-        <v>1070.801132233504</v>
+        <v>636.3030194644175</v>
       </c>
     </row>
     <row r="29">
@@ -6464,22 +6464,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1394.531219842001</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2398.817321261059</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N29" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4220.213029898572</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4928.4923090565</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6537,31 +6537,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.617659878699</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O30" t="n">
-        <v>1191.617659878699</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>496.5168264363577</v>
+        <v>373.4203922683195</v>
       </c>
       <c r="C31" t="n">
-        <v>324.5442633152737</v>
+        <v>201.4478291472354</v>
       </c>
       <c r="D31" t="n">
-        <v>324.5442633152738</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>324.5442633152738</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
-        <v>152.6824890898342</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>152.6824890898342</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>152.6824890898342</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6643,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1712.153331232334</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1430.441863840363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1155.589460012876</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>913.0255634586814</v>
+        <v>789.9291292906431</v>
       </c>
       <c r="Y31" t="n">
-        <v>686.6827951484233</v>
+        <v>563.5863609803851</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220167</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181376</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815412</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.2948321079329</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.2948321079329</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>91.2948321079329</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>531.7997555958424</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.424803215119</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>1461.424803215119</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>2437.67586170182</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3282.820511852632</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>3991.09979101056</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4447.185270514743</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396645</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151239</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077326</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562896</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744697</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630243</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.072461172178</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451152</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.2948321079329</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>91.2948321079329</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>91.2948321079329</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>91.2948321079329</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>91.2948321079329</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>91.2948321079329</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>91.2948321079329</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>719.6392687871653</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1435.836985825663</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619903</v>
+        <v>933.2391797598862</v>
       </c>
       <c r="C34" t="n">
-        <v>786.2936862223604</v>
+        <v>797.3015675202563</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305856</v>
+        <v>670.0197455284812</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648933</v>
+        <v>539.8464905627889</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209079</v>
+        <v>404.0196672188034</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965942</v>
+        <v>273.7976483944898</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862028</v>
+        <v>166.0363307840984</v>
       </c>
       <c r="I34" t="n">
-        <v>91.2948321079329</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910042</v>
+        <v>195.1118969888998</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557545</v>
+        <v>456.9573535536503</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090881</v>
+        <v>846.9645302069843</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1273.468180536148</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473201</v>
+        <v>1686.277546771097</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>2077.023530809774</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2402.940598090588</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2565.258583690263</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960994</v>
+        <v>2554.25492125889</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361583</v>
+        <v>2420.154824659479</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>2212.850427766833</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1968.700930148592</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.016532340179</v>
+        <v>1723.024413638075</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394146</v>
+        <v>1484.206960692042</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>1277.678015019301</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>1087.370197590498</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2278.587040220166</v>
+        <v>2390.481893288302</v>
       </c>
       <c r="C35" t="n">
-        <v>1887.72126111492</v>
+        <v>1999.616114183056</v>
       </c>
       <c r="D35" t="n">
-        <v>1500.463591181375</v>
+        <v>1612.358444249511</v>
       </c>
       <c r="E35" t="n">
-        <v>1110.521602210687</v>
+        <v>1222.416455278822</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815411</v>
+        <v>797.2922734682227</v>
       </c>
       <c r="G35" t="n">
-        <v>353.1282597524439</v>
+        <v>392.9532110576713</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793288</v>
+        <v>95.08483253170613</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793288</v>
+        <v>95.08483253170613</v>
       </c>
       <c r="J35" t="n">
-        <v>91.29483210793288</v>
+        <v>457.6882913486016</v>
       </c>
       <c r="K35" t="n">
-        <v>91.29483210793288</v>
+        <v>1173.196599324101</v>
       </c>
       <c r="L35" t="n">
-        <v>1020.919879727209</v>
+        <v>2102.821646943377</v>
       </c>
       <c r="M35" t="n">
-        <v>2025.205981146268</v>
+        <v>2102.821646943377</v>
       </c>
       <c r="N35" t="n">
-        <v>3001.457039632969</v>
+        <v>2627.175882890481</v>
       </c>
       <c r="O35" t="n">
-        <v>3846.601689783781</v>
+        <v>3472.320533041293</v>
       </c>
       <c r="P35" t="n">
-        <v>4554.880968941708</v>
+        <v>4180.599812199221</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.741605396644</v>
+        <v>4636.685291703404</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396644</v>
+        <v>4754.241626585306</v>
       </c>
       <c r="S35" t="n">
-        <v>4496.409262151238</v>
+        <v>4685.909283339901</v>
       </c>
       <c r="T35" t="n">
-        <v>4311.518642077326</v>
+        <v>4501.018663265988</v>
       </c>
       <c r="U35" t="n">
-        <v>4089.198683555193</v>
+        <v>4278.698704743854</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.744219562896</v>
+        <v>3957.244240751558</v>
       </c>
       <c r="W35" t="n">
-        <v>3407.387820744697</v>
+        <v>3560.852891051904</v>
       </c>
       <c r="X35" t="n">
-        <v>3031.702772793898</v>
+        <v>3149.132892219652</v>
       </c>
       <c r="Y35" t="n">
-        <v>2662.400453630242</v>
+        <v>2774.295306698378</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>658.4183231393881</v>
+        <v>662.2083235631613</v>
       </c>
       <c r="C36" t="n">
-        <v>540.9124196568929</v>
+        <v>544.7024200806661</v>
       </c>
       <c r="D36" t="n">
-        <v>437.0724611721779</v>
+        <v>440.8624615959512</v>
       </c>
       <c r="E36" t="n">
-        <v>332.3705274451151</v>
+        <v>336.1605278688884</v>
       </c>
       <c r="F36" t="n">
-        <v>238.7246971280193</v>
+        <v>242.5146975517926</v>
       </c>
       <c r="G36" t="n">
-        <v>144.6709253456233</v>
+        <v>148.4609257693965</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793288</v>
+        <v>95.08483253170613</v>
       </c>
       <c r="I36" t="n">
-        <v>91.29483210793288</v>
+        <v>95.08483253170613</v>
       </c>
       <c r="J36" t="n">
-        <v>91.29483210793288</v>
+        <v>95.08483253170613</v>
       </c>
       <c r="K36" t="n">
-        <v>681.7797586762724</v>
+        <v>95.08483253170613</v>
       </c>
       <c r="L36" t="n">
-        <v>681.7797586762724</v>
+        <v>95.08483253170613</v>
       </c>
       <c r="M36" t="n">
-        <v>1183.784745649945</v>
+        <v>641.4099591262354</v>
       </c>
       <c r="N36" t="n">
-        <v>1183.784745649945</v>
+        <v>641.4099591262354</v>
       </c>
       <c r="O36" t="n">
-        <v>1183.784745649945</v>
+        <v>641.4099591262354</v>
       </c>
       <c r="P36" t="n">
-        <v>1899.982462688443</v>
+        <v>1357.607676164733</v>
       </c>
       <c r="Q36" t="n">
-        <v>1899.982462688443</v>
+        <v>1821.753153027513</v>
       </c>
       <c r="R36" t="n">
-        <v>1899.982462688443</v>
+        <v>1903.772463112216</v>
       </c>
       <c r="S36" t="n">
-        <v>1818.658215249697</v>
+        <v>1822.44821567347</v>
       </c>
       <c r="T36" t="n">
-        <v>1676.778279547375</v>
+        <v>1680.568279971149</v>
       </c>
       <c r="U36" t="n">
-        <v>1492.010083467012</v>
+        <v>1495.800083890785</v>
       </c>
       <c r="V36" t="n">
-        <v>1287.036944606278</v>
+        <v>1290.826945030052</v>
       </c>
       <c r="W36" t="n">
-        <v>1090.515567439495</v>
+        <v>1094.305567863269</v>
       </c>
       <c r="X36" t="n">
-        <v>927.0382212061585</v>
+        <v>930.8282216299317</v>
       </c>
       <c r="Y36" t="n">
-        <v>787.3453325594509</v>
+        <v>791.1353329832241</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.2312984619909</v>
+        <v>926.0212988857638</v>
       </c>
       <c r="C37" t="n">
-        <v>786.293686222361</v>
+        <v>790.083686646134</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305858</v>
+        <v>662.8018646543588</v>
       </c>
       <c r="E37" t="n">
-        <v>528.8386092648934</v>
+        <v>532.6286096886665</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209079</v>
+        <v>396.8017863446811</v>
       </c>
       <c r="G37" t="n">
-        <v>262.7897670965941</v>
+        <v>266.5797675203675</v>
       </c>
       <c r="H37" t="n">
-        <v>155.0284494862027</v>
+        <v>158.818449909976</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793288</v>
+        <v>95.08483253170613</v>
       </c>
       <c r="J37" t="n">
-        <v>184.1040156910041</v>
+        <v>187.8940161147774</v>
       </c>
       <c r="K37" t="n">
-        <v>445.9494722557545</v>
+        <v>449.7394726795278</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090885</v>
+        <v>839.7466493328618</v>
       </c>
       <c r="M37" t="n">
-        <v>1262.460299238252</v>
+        <v>1266.250299662026</v>
       </c>
       <c r="N37" t="n">
-        <v>1675.269665473201</v>
+        <v>1679.059665896975</v>
       </c>
       <c r="O37" t="n">
-        <v>2066.015649511878</v>
+        <v>2069.805649935651</v>
       </c>
       <c r="P37" t="n">
-        <v>2391.932716792692</v>
+        <v>2395.722717216465</v>
       </c>
       <c r="Q37" t="n">
-        <v>2554.250702392367</v>
+        <v>2558.04070281614</v>
       </c>
       <c r="R37" t="n">
-        <v>2543.247039960995</v>
+        <v>2547.037040384767</v>
       </c>
       <c r="S37" t="n">
-        <v>2409.146943361584</v>
+        <v>2412.936943785357</v>
       </c>
       <c r="T37" t="n">
-        <v>2201.842546468938</v>
+        <v>2205.632546892711</v>
       </c>
       <c r="U37" t="n">
-        <v>1957.693048850697</v>
+        <v>1961.483049274469</v>
       </c>
       <c r="V37" t="n">
-        <v>1712.01653234018</v>
+        <v>1715.806532763952</v>
       </c>
       <c r="W37" t="n">
-        <v>1473.199079394147</v>
+        <v>1476.98907981792</v>
       </c>
       <c r="X37" t="n">
-        <v>1266.670133721406</v>
+        <v>1270.460134145179</v>
       </c>
       <c r="Y37" t="n">
-        <v>1076.362316292602</v>
+        <v>1080.152316716375</v>
       </c>
     </row>
     <row r="38">
@@ -7157,19 +7157,19 @@
         <v>1500.463591181375</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.521602210686</v>
+        <v>1110.521602210687</v>
       </c>
       <c r="F38" t="n">
-        <v>721.4323712815408</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G38" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I38" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J38" t="n">
         <v>453.8982909248284</v>
@@ -7181,40 +7181,40 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M38" t="n">
-        <v>3103.317747938662</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N38" t="n">
-        <v>3103.317747938662</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O38" t="n">
-        <v>3282.820511852629</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P38" t="n">
-        <v>3991.099791010557</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q38" t="n">
-        <v>4447.18527051474</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R38" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V38" t="n">
         <v>3767.744219562895</v>
       </c>
       <c r="W38" t="n">
-        <v>3407.387820744695</v>
+        <v>3407.387820744696</v>
       </c>
       <c r="X38" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y38" t="n">
         <v>2662.400453630242</v>
@@ -7245,25 +7245,25 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I39" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J39" t="n">
-        <v>362.9923213875239</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K39" t="n">
-        <v>362.9923213875239</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L39" t="n">
-        <v>362.9923213875239</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="M39" t="n">
-        <v>1418.978859363569</v>
+        <v>1010.501184676971</v>
       </c>
       <c r="N39" t="n">
-        <v>1899.982462688443</v>
+        <v>1010.501184676971</v>
       </c>
       <c r="O39" t="n">
         <v>1899.982462688443</v>
@@ -7309,7 +7309,7 @@
         <v>922.2312984619905</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223606</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D40" t="n">
         <v>659.0118642305855</v>
@@ -7327,16 +7327,16 @@
         <v>155.0284494862027</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J40" t="n">
-        <v>184.1040156910041</v>
+        <v>184.104015691004</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557541</v>
+        <v>445.9494722557544</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090881</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238252</v>
@@ -7388,7 +7388,7 @@
         <v>2278.587040220166</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D41" t="n">
         <v>1500.463591181375</v>
@@ -7397,7 +7397,7 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F41" t="n">
-        <v>721.4323712815411</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G41" t="n">
         <v>353.1282597524439</v>
@@ -7409,28 +7409,28 @@
         <v>91.29483210793288</v>
       </c>
       <c r="J41" t="n">
-        <v>91.29483210793288</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="K41" t="n">
-        <v>806.8031400834319</v>
+        <v>453.8982909248284</v>
       </c>
       <c r="L41" t="n">
-        <v>1578.98113809702</v>
+        <v>457.138701796059</v>
       </c>
       <c r="M41" t="n">
-        <v>1578.98113809702</v>
+        <v>1461.424803215117</v>
       </c>
       <c r="N41" t="n">
-        <v>2555.23219658372</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O41" t="n">
-        <v>3400.376846734533</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P41" t="n">
-        <v>4108.65612589246</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q41" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R41" t="n">
         <v>4564.741605396644</v>
@@ -7445,7 +7445,7 @@
         <v>4089.198683555192</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W41" t="n">
         <v>3407.387820744696</v>
@@ -7500,16 +7500,16 @@
         <v>91.29483210793288</v>
       </c>
       <c r="N42" t="n">
-        <v>719.6392687871653</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="O42" t="n">
-        <v>719.6392687871653</v>
+        <v>637.6199587024621</v>
       </c>
       <c r="P42" t="n">
-        <v>1435.836985825663</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="Q42" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R42" t="n">
         <v>1899.982462688443</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619904</v>
+        <v>922.2312984619911</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223606</v>
+        <v>786.2936862223612</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305855</v>
+        <v>659.0118642305861</v>
       </c>
       <c r="E43" t="n">
-        <v>528.8386092648932</v>
+        <v>528.8386092648939</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209084</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965948</v>
       </c>
       <c r="H43" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862034</v>
       </c>
       <c r="I43" t="n">
         <v>91.29483210793288</v>
@@ -7573,13 +7573,13 @@
         <v>445.9494722557545</v>
       </c>
       <c r="L43" t="n">
-        <v>835.9566489090884</v>
+        <v>835.9566489090887</v>
       </c>
       <c r="M43" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N43" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O43" t="n">
         <v>2066.015649511878</v>
@@ -7600,7 +7600,7 @@
         <v>2201.842546468938</v>
       </c>
       <c r="U43" t="n">
-        <v>1957.693048850696</v>
+        <v>1957.693048850697</v>
       </c>
       <c r="V43" t="n">
         <v>1712.01653234018</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2278.587040220165</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C44" t="n">
         <v>1887.72126111492</v>
@@ -7634,16 +7634,16 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F44" t="n">
-        <v>721.4323712815411</v>
+        <v>721.4323712815412</v>
       </c>
       <c r="G44" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J44" t="n">
         <v>453.8982909248284</v>
@@ -7652,46 +7652,46 @@
         <v>1169.406598900327</v>
       </c>
       <c r="L44" t="n">
-        <v>1169.406598900327</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>1461.424803215116</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N44" t="n">
-        <v>2437.675861701817</v>
+        <v>2437.675861701818</v>
       </c>
       <c r="O44" t="n">
-        <v>3282.820511852629</v>
+        <v>3282.82051185263</v>
       </c>
       <c r="P44" t="n">
-        <v>3991.099791010557</v>
+        <v>3991.099791010558</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.18527051474</v>
+        <v>4447.185270514741</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396643</v>
+        <v>4564.741605396644</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151237</v>
+        <v>4496.409262151238</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077324</v>
+        <v>4311.518642077325</v>
       </c>
       <c r="U44" t="n">
-        <v>4089.198683555191</v>
+        <v>4089.198683555192</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562894</v>
+        <v>3767.744219562896</v>
       </c>
       <c r="W44" t="n">
-        <v>3407.387820744695</v>
+        <v>3407.387820744697</v>
       </c>
       <c r="X44" t="n">
-        <v>3031.702772793897</v>
+        <v>3031.702772793898</v>
       </c>
       <c r="Y44" t="n">
-        <v>2662.400453630241</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="I45" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J45" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="K45" t="n">
-        <v>98.74147506984468</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="L45" t="n">
-        <v>935.5402831527508</v>
+        <v>928.093640190839</v>
       </c>
       <c r="M45" t="n">
-        <v>935.5402831527508</v>
+        <v>928.093640190839</v>
       </c>
       <c r="N45" t="n">
-        <v>935.5402831527508</v>
+        <v>928.093640190839</v>
       </c>
       <c r="O45" t="n">
-        <v>1183.784745649945</v>
+        <v>928.093640190839</v>
       </c>
       <c r="P45" t="n">
-        <v>1899.982462688443</v>
+        <v>1644.291357229337</v>
       </c>
       <c r="Q45" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R45" t="n">
         <v>1899.982462688443</v>
@@ -7801,25 +7801,25 @@
         <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793285</v>
+        <v>91.29483210793288</v>
       </c>
       <c r="J46" t="n">
         <v>184.1040156910041</v>
       </c>
       <c r="K46" t="n">
-        <v>445.949472255754</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L46" t="n">
-        <v>835.956648909088</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M46" t="n">
-        <v>1262.460299238252</v>
+        <v>1262.460299238253</v>
       </c>
       <c r="N46" t="n">
-        <v>1675.269665473201</v>
+        <v>1675.269665473202</v>
       </c>
       <c r="O46" t="n">
-        <v>2066.015649511877</v>
+        <v>2066.015649511878</v>
       </c>
       <c r="P46" t="n">
         <v>2391.932716792692</v>
@@ -7840,7 +7840,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V46" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W46" t="n">
         <v>1473.199079394147</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>175.6097195794907</v>
       </c>
       <c r="L2" t="n">
-        <v>65.29234003482364</v>
+        <v>565.7332281312861</v>
       </c>
       <c r="M2" t="n">
-        <v>65.54757303225151</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>65.39593296726571</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>564.8121450546873</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>564.9965475088945</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>63.14896002761616</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,25 +8052,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>50.51554396615302</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>41.97352273874154</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>550.5179662109912</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>548.7642139122048</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>437.9970246039016</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8079,7 +8079,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>51.78922952696383</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,25 +8137,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>50.03507002852091</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>49.55573749368652</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>50.49711079080617</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>96.91196578554357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,25 +8219,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>285.1360579723429</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>274.2825909425976</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>284.103638374166</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>284.2149748957441</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>108.094208435838</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,28 +8289,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>267.4351298730533</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>269.2232493730533</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>98.5227558077745</v>
       </c>
       <c r="N6" t="n">
-        <v>167.8247067146721</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>268.5948567445487</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>268.7427754354212</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>269.3994554312058</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>267.5729165153204</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>30.53475674781522</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8456,22 +8456,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>362.3257551502136</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>547.9768619480851</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8541,16 +8541,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>99.28895563385612</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8611,10 +8611,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>233.5263615801855</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8696,10 +8696,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>164.1553158890553</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>736.5931359801162</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8763,10 +8763,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
@@ -8775,16 +8775,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>656.0343783945847</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>31.27739019491165</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>115.7341283502403</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8933,7 +8933,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>517.6546514635608</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>618.848654609434</v>
@@ -9012,16 +9012,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>502.8069773889824</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9167,13 +9167,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>443.1202251383866</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>164.0036758240695</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9182,10 +9182,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9407,10 +9407,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>282.8990884970374</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9422,7 +9422,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,16 +9489,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>528.4187726313922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716452</v>
       </c>
       <c r="P21" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9638,13 +9638,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>132.2136663539449</v>
+        <v>398.9108788555778</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9656,7 +9656,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9714,16 +9714,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>53.23515454148313</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
@@ -9732,10 +9732,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9875,13 +9875,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>779.697912545697</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,10 +9890,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>704.4918921016263</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9954,7 +9954,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9966,10 +9966,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P27" t="n">
-        <v>418.6332501171365</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10112,16 +10112,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822445</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10130,7 +10130,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>105.9095497086638</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10200,19 +10200,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>53.89195754947579</v>
       </c>
       <c r="P30" t="n">
-        <v>196.7283130837754</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>480.7190689644149</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10358,7 +10358,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10434,19 +10434,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>657.8632399032649</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>566.9303662153586</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10604,10 +10604,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.08491344796678</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>530.1725249301787</v>
+        <v>574.9403427290243</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10683,10 +10683,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>379.3444866548641</v>
       </c>
       <c r="O38" t="n">
-        <v>218.7068825014454</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10899,7 +10899,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10908,13 +10908,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N39" t="n">
-        <v>507.2052537942222</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>818.2898182039236</v>
+        <v>41.5851847267952</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11081,7 +11081,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11148,10 +11148,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0343783945846</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P42" t="n">
         <v>745.2028786174529</v>
@@ -11160,7 +11160,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>332.3991460456832</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>379.3444866548641</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11388,16 +11388,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>273.92387204262</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>198.1730942227185</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>352.620414253524</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>183.8529205572381</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>7.021071667243588</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>97.13705013256487</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>226.8293122967279</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>148.8949699152441</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>26.86140143470214</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>226.8293122967268</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.98949189918665</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>14.8410767989667</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24020,10 +24020,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>42.6608995948781</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>68.15019490184211</v>
       </c>
       <c r="H22" t="n">
-        <v>14.84107679896687</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>26.86140143470191</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.98949189919212</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>14.8410767989667</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.98949189919183</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.98949189919173</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24856,7 +24856,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>48.89490464996065</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>921511.584360973</v>
+        <v>942328.92538278</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>930994.2202669182</v>
+        <v>943215.1918277455</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>940297.7106829077</v>
+        <v>943215.1918277455</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>830201.329345633</v>
+        <v>903976.6967841944</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>926304.3436765538</v>
+        <v>928146.2251354319</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>926304.343676554</v>
+        <v>928146.2251354317</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>926304.3436765538</v>
+        <v>928146.2251354317</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>956123.6007100072</v>
+        <v>928146.2251354316</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>956123.6007100072</v>
+        <v>928146.2251354316</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>957042.8801740862</v>
+        <v>960295.5423115341</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>957042.8801740862</v>
+        <v>958162.7678750623</v>
       </c>
     </row>
     <row r="14">
@@ -26320,22 +26320,22 @@
         <v>101927.4669019535</v>
       </c>
       <c r="E2" t="n">
-        <v>87976.80399219871</v>
+        <v>95794.24936569102</v>
       </c>
       <c r="F2" t="n">
-        <v>98654.91669563428</v>
+        <v>98355.32054905334</v>
       </c>
       <c r="G2" t="n">
-        <v>98654.91669563434</v>
+        <v>98355.32054905331</v>
       </c>
       <c r="H2" t="n">
-        <v>98654.91669563434</v>
+        <v>98355.32054905331</v>
       </c>
       <c r="I2" t="n">
-        <v>101814.6490159278</v>
+        <v>98355.32054905333</v>
       </c>
       <c r="J2" t="n">
-        <v>101814.6490159277</v>
+        <v>98355.32054905333</v>
       </c>
       <c r="K2" t="n">
         <v>98355.32054905333</v>
@@ -26344,7 +26344,7 @@
         <v>101927.4669019535</v>
       </c>
       <c r="M2" t="n">
-        <v>101927.4669019535</v>
+        <v>101927.4669019537</v>
       </c>
       <c r="N2" t="n">
         <v>101927.4669019535</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>176750.9700148931</v>
       </c>
       <c r="C3" t="n">
-        <v>70658.04841929319</v>
+        <v>9306.576880934292</v>
       </c>
       <c r="D3" t="n">
-        <v>66653.70877922939</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>186730.9660666976</v>
+        <v>201594.2222250235</v>
       </c>
       <c r="F3" t="n">
-        <v>27638.3220351708</v>
+        <v>13574.17076777569</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15542.84620574579</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7356.463848391435</v>
+        <v>137996.588710941</v>
       </c>
       <c r="K3" t="n">
-        <v>90655.72937395262</v>
+        <v>7413.904085040685</v>
       </c>
       <c r="L3" t="n">
-        <v>48021.96166036587</v>
+        <v>28539.6810981117</v>
       </c>
       <c r="M3" t="n">
-        <v>155852.4193600509</v>
+        <v>145773.7708181578</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>305120.5826568029</v>
+        <v>171082.2173752388</v>
       </c>
       <c r="C4" t="n">
-        <v>244063.9369467818</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>184160.7703768716</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>39119.38874022567</v>
+        <v>42606.11499889989</v>
       </c>
       <c r="F4" t="n">
-        <v>74031.62392075603</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="G4" t="n">
-        <v>74031.62392075604</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="H4" t="n">
-        <v>74031.62392075601</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="I4" t="n">
-        <v>75440.92339458493</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="J4" t="n">
-        <v>75440.92339458491</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="L4" t="n">
-        <v>76430.31156290733</v>
+        <v>55487.12216806366</v>
       </c>
       <c r="M4" t="n">
+        <v>69219.59639133341</v>
+      </c>
+      <c r="N4" t="n">
         <v>76430.3115629073</v>
       </c>
-      <c r="N4" t="n">
-        <v>76430.31156290729</v>
-      </c>
       <c r="O4" t="n">
-        <v>76430.3115629073</v>
+        <v>76430.31156290731</v>
       </c>
       <c r="P4" t="n">
         <v>76430.31156290731</v>
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>65694.80809047872</v>
       </c>
       <c r="C5" t="n">
-        <v>48634.50014481497</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66077.49227817</v>
+        <v>74869.66186636203</v>
       </c>
       <c r="F5" t="n">
-        <v>68981.89989713847</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="G5" t="n">
-        <v>68981.89989713847</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="H5" t="n">
-        <v>68981.89989713847</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.60588240983</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>72535.60588240981</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482545</v>
+        <v>80749.19025122613</v>
       </c>
       <c r="M5" t="n">
+        <v>75263.60078689309</v>
+      </c>
+      <c r="N5" t="n">
         <v>72383.20046482542</v>
-      </c>
-      <c r="N5" t="n">
-        <v>72383.20046482541</v>
       </c>
       <c r="O5" t="n">
         <v>72383.20046482542</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482541</v>
+        <v>72383.20046482542</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-247952.6096115657</v>
+        <v>-311600.5285786571</v>
       </c>
       <c r="C6" t="n">
-        <v>-261429.0186089365</v>
+        <v>-140201.1000588654</v>
       </c>
       <c r="D6" t="n">
-        <v>-210567.7265243758</v>
+        <v>-130894.5231779312</v>
       </c>
       <c r="E6" t="n">
-        <v>-203951.0430928945</v>
+        <v>-223363.3671179696</v>
       </c>
       <c r="F6" t="n">
-        <v>-71996.92915743102</v>
+        <v>-36768.34352323191</v>
       </c>
       <c r="G6" t="n">
-        <v>-44358.60712226017</v>
+        <v>-23194.17275545625</v>
       </c>
       <c r="H6" t="n">
-        <v>-44358.60712226015</v>
+        <v>-23194.17275545622</v>
       </c>
       <c r="I6" t="n">
-        <v>-61704.72646681278</v>
+        <v>-23194.17275545622</v>
       </c>
       <c r="J6" t="n">
-        <v>-53518.34410945844</v>
+        <v>-161190.7614663972</v>
       </c>
       <c r="K6" t="n">
-        <v>-113798.8714672245</v>
+        <v>-30608.07684049691</v>
       </c>
       <c r="L6" t="n">
-        <v>-94908.00678614518</v>
+        <v>-62848.52661544801</v>
       </c>
       <c r="M6" t="n">
-        <v>-202738.4644858301</v>
+        <v>-188329.5010944307</v>
       </c>
       <c r="N6" t="n">
-        <v>-46886.04512577922</v>
+        <v>-46886.04512577926</v>
       </c>
       <c r="O6" t="n">
         <v>-46886.04512577924</v>
       </c>
       <c r="P6" t="n">
-        <v>-46886.04512577924</v>
+        <v>-46886.04512577926</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="O2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P2" t="n">
         <v>35.67460137263965</v>
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>527.4211856986632</v>
       </c>
       <c r="C4" t="n">
-        <v>246.82401553972</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1086.800859838322</v>
+        <v>1231.408912275691</v>
       </c>
       <c r="F4" t="n">
-        <v>1086.800859838322</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1086.800859838322</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1086.800859838322</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1141.185401349161</v>
+        <v>1188.560406646327</v>
       </c>
       <c r="N4" t="n">
         <v>1141.185401349161</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>527.4211856986632</v>
       </c>
       <c r="C4" t="n">
-        <v>218.7077054069003</v>
+        <v>28.80662741693095</v>
       </c>
       <c r="D4" t="n">
-        <v>214.5758902206142</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>625.4009540779882</v>
+        <v>675.1810991600972</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>47.37500529716567</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>58.44911159985782</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281954</v>
+        <v>527.4211856986632</v>
       </c>
       <c r="K4" t="n">
-        <v>352.2416515415771</v>
+        <v>28.80662741693095</v>
       </c>
       <c r="L4" t="n">
-        <v>76.97737399691874</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>625.4009540779878</v>
+        <v>584.957588233567</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>527.4211856986632</v>
       </c>
       <c r="K4" t="n">
-        <v>218.7077054069003</v>
+        <v>28.80662741693095</v>
       </c>
       <c r="L4" t="n">
-        <v>214.5758902206142</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>625.4009540779882</v>
+        <v>675.1810991600972</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>47.37500529716567</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>123.4610536547128</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.52142919304239</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>88.21453431485057</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>78.89006842480458</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>174.8070973393067</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.1479988921253</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>142.1365273570535</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>40.79816877669884</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.3783105181976</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.9630304943357</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>153.4716562467258</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>48.06567920098553</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>74.65813289307471</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>107.090505185293</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>318.3908504362357</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>63.12511435679843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>30.55858847497876</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>32.07033717833139</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
-        <v>217.2169226645223</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>276.3528156537888</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.882414251447013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>49.85634057506201</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>-1.505382690860013e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5479025439635</v>
+        <v>7.275957614183426e-12</v>
       </c>
       <c r="M16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5479025439635</v>
+        <v>-1.042810389364417e-12</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.5479025439635</v>
+        <v>5.741759480889698e-12</v>
       </c>
       <c r="R19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.5479025439635</v>
+        <v>-6.095989644906963e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.5479025439635</v>
+        <v>4.30494158839186e-12</v>
       </c>
       <c r="O22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29995,13 +29995,13 @@
         <v>35.67460137263963</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30046,13 +30046,13 @@
         <v>35.67460137263963</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263963</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263963</v>
+        <v>30.1946876785974</v>
       </c>
     </row>
     <row r="36">
@@ -30405,7 +30405,7 @@
         <v>35.67460137263963</v>
       </c>
       <c r="K40" t="n">
-        <v>35.6746013726393</v>
+        <v>35.67460137263963</v>
       </c>
       <c r="L40" t="n">
         <v>35.67460137263963</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="K43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="M43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="R43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="S43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="44">
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>139.8451187846814</v>
       </c>
       <c r="L2" t="n">
-        <v>26.98029760220071</v>
+        <v>527.4211856986632</v>
       </c>
       <c r="M2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>527.4211856986632</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>527.4211856986632</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,25 +34772,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>28.11631013281968</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19.45843602451199</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>527.4211856986632</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>527.4211856986632</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>414.8251348816794</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34799,7 +34799,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.11631013281968</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>28.11631013281968</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>26.98029760220071</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>28.11631013281968</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>72.29240302075863</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,25 +34939,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>246.82401553972</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>236.8513280431657</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>246.82401553972</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>246.82401553972</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>73.06155854104156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,28 +35009,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>246.82401553972</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>246.82401553972</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>75.42597529544652</v>
       </c>
       <c r="N6" t="n">
-        <v>146.4816785011304</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>246.82401553972</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>246.82401553972</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>246.82401553972</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>246.82401553972</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>8.035569249390774</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>77.94592742031445</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35331,10 +35331,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>211.6076016844843</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35416,10 +35416,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>126.7240529896234</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>699.3135131456702</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>634.691350181043</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>9.506548990082987</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>86.31416886465375</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35653,7 +35653,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>480.223388564129</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>596.4494207761006</v>
@@ -35732,16 +35732,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>479.7101968766544</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115434</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,13 +35887,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>404.8081827057636</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>126.7240529896234</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35902,10 +35902,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107107</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391592</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,10 +36127,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>245.4678255976056</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36142,7 +36142,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>507.0757444178506</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="P21" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404445</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>94.78240345451303</v>
+        <v>361.4796159561459</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36376,7 +36376,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36434,16 +36434,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>30.72006782725357</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>742.2666496462653</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,10 +36610,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>666.9165302913949</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P27" t="n">
-        <v>396.8624089123078</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36850,7 +36850,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.78487510406572</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="P30" t="n">
-        <v>174.9574718789467</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>444.9544681696055</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37154,19 +37154,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>634.6913501810427</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>529.6507433809126</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37324,10 +37324,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.960238843368735</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>507.0757444178507</v>
+        <v>551.8435622166963</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37403,10 +37403,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="O38" t="n">
-        <v>181.3159231454213</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N39" t="n">
-        <v>485.8622255806805</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>93.74665008391035</v>
       </c>
       <c r="K40" t="n">
-        <v>264.4903601664142</v>
+        <v>264.4903601664146</v>
       </c>
       <c r="L40" t="n">
         <v>393.9466430841758</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>779.9777757713007</v>
+        <v>3.273142294172274</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37801,7 +37801,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,10 +37868,10 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P42" t="n">
         <v>723.4320374126243</v>
@@ -37880,7 +37880,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>294.9678831462513</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>342.0648638204181</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38108,16 +38108,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>250.7519823203978</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>175.42605593374</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
